--- a/docs/tpl/报告/芯片选型评估报告模板_211110.xlsx
+++ b/docs/tpl/报告/芯片选型评估报告模板_211110.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cpy\WorkSpace\Github\lib\docs\tpl\报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF39A1D5-6B62-41FE-A748-86B2BAD852C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B781A093-6E90-4DAC-A6B7-B8AD6CC0EF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C8A14CC-EB00-4E3D-BF40-1A1DE4E32F26}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>内核</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>开发环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADE517E-7F0D-4F1C-B93F-5D4F43B2E8DF}">
-  <dimension ref="C4:X9"/>
+  <dimension ref="C4:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -730,15 +734,15 @@
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="25" width="8.625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="6" max="26" width="8.625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="6" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -791,22 +795,25 @@
         <v>23</v>
       </c>
       <c r="T6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="W6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
@@ -834,9 +841,10 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="6"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
@@ -864,9 +872,10 @@
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
-      <c r="X8" s="12"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="12"/>
     </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>1</v>
       </c>
@@ -893,6 +902,7 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
